--- a/state_results/Rivers/KiwiteaatKimboltonRd_fda899f388.xlsx
+++ b/state_results/Rivers/KiwiteaatKimboltonRd_fda899f388.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U101"/>
+  <dimension ref="A1:U121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         <v>1.4</v>
       </c>
       <c r="G3" t="n">
-        <v>1.77112892191856</v>
+        <v>1.77119469641527</v>
       </c>
       <c r="H3" t="n">
         <v>7.1</v>
@@ -728,7 +728,7 @@
         <v>0.011</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0119370643408651</v>
+        <v>0.0119399594285355</v>
       </c>
       <c r="H4" t="n">
         <v>0.031</v>
@@ -809,7 +809,7 @@
         <v>0.011</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0119370643408651</v>
+        <v>0.0119399594285355</v>
       </c>
       <c r="H5" t="n">
         <v>0.031</v>
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.00198</v>
+        <v>0.00208</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0077604469563152</v>
+        <v>0.0079508567877498</v>
       </c>
       <c r="H11" t="n">
         <v>0.1</v>
@@ -1318,10 +1318,10 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.00202</v>
+        <v>0.00208</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0138</v>
+        <v>0.01414</v>
       </c>
       <c r="N11" t="n">
         <v>0.01889</v>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.00198</v>
+        <v>0.00208</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0077604469563152</v>
+        <v>0.0079508567877498</v>
       </c>
       <c r="H12" t="n">
         <v>0.1</v>
@@ -1399,10 +1399,10 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.00202</v>
+        <v>0.00208</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0138</v>
+        <v>0.01414</v>
       </c>
       <c r="N12" t="n">
         <v>0.01889</v>
@@ -1469,7 +1469,7 @@
         <v>0.35765</v>
       </c>
       <c r="G13" t="n">
-        <v>0.49175270170982</v>
+        <v>0.491883212265945</v>
       </c>
       <c r="H13" t="n">
         <v>1.76</v>
@@ -1550,7 +1550,7 @@
         <v>0.35765</v>
       </c>
       <c r="G14" t="n">
-        <v>0.49175270170982</v>
+        <v>0.491883212265945</v>
       </c>
       <c r="H14" t="n">
         <v>1.76</v>
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.378</v>
+        <v>0.3782</v>
       </c>
       <c r="G16" t="n">
-        <v>0.506674548081309</v>
+        <v>0.50683559234422</v>
       </c>
       <c r="H16" t="n">
         <v>1.765</v>
@@ -1715,10 +1715,10 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.08805</v>
       </c>
       <c r="M16" t="n">
-        <v>1.0218</v>
+        <v>1.02166</v>
       </c>
       <c r="N16" t="n">
         <v>1.2338</v>
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.378</v>
+        <v>0.3782</v>
       </c>
       <c r="G17" t="n">
-        <v>0.506674548081309</v>
+        <v>0.50683559234422</v>
       </c>
       <c r="H17" t="n">
         <v>1.765</v>
@@ -1792,10 +1792,10 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.08805</v>
       </c>
       <c r="M17" t="n">
-        <v>1.0218</v>
+        <v>1.02166</v>
       </c>
       <c r="N17" t="n">
         <v>1.2338</v>
@@ -2247,7 +2247,7 @@
         <v>0.95</v>
       </c>
       <c r="G23" t="n">
-        <v>1.61319114178152</v>
+        <v>1.6132522180999</v>
       </c>
       <c r="H23" t="n">
         <v>7.1</v>
@@ -2328,7 +2328,7 @@
         <v>0.012</v>
       </c>
       <c r="G24" t="n">
-        <v>0.012616097148647</v>
+        <v>0.0126189431670349</v>
       </c>
       <c r="H24" t="n">
         <v>0.037</v>
@@ -2409,7 +2409,7 @@
         <v>0.012</v>
       </c>
       <c r="G25" t="n">
-        <v>0.012616097148647</v>
+        <v>0.0126189431670349</v>
       </c>
       <c r="H25" t="n">
         <v>0.037</v>
@@ -2490,10 +2490,10 @@
         <v>150</v>
       </c>
       <c r="G26" t="n">
-        <v>1414.34920499653</v>
+        <v>1407.74990941775</v>
       </c>
       <c r="H26" t="n">
-        <v>14992.5115346305</v>
+        <v>13516.3435359425</v>
       </c>
       <c r="I26" t="n">
         <v>9678</v>
@@ -2575,10 +2575,10 @@
         <v>150</v>
       </c>
       <c r="G27" t="n">
-        <v>1414.34920499653</v>
+        <v>1407.74990941775</v>
       </c>
       <c r="H27" t="n">
-        <v>14992.5115346305</v>
+        <v>13516.3435359425</v>
       </c>
       <c r="I27" t="n">
         <v>9678</v>
@@ -2660,10 +2660,10 @@
         <v>150</v>
       </c>
       <c r="G28" t="n">
-        <v>1414.34920499653</v>
+        <v>1407.74990941775</v>
       </c>
       <c r="H28" t="n">
-        <v>14992.5115346305</v>
+        <v>13516.3435359425</v>
       </c>
       <c r="I28" t="n">
         <v>9678</v>
@@ -2745,10 +2745,10 @@
         <v>150</v>
       </c>
       <c r="G29" t="n">
-        <v>1414.34920499653</v>
+        <v>1407.74990941775</v>
       </c>
       <c r="H29" t="n">
-        <v>14992.5115346305</v>
+        <v>13516.3435359425</v>
       </c>
       <c r="I29" t="n">
         <v>9678</v>
@@ -2904,10 +2904,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.00246</v>
+        <v>0.00276</v>
       </c>
       <c r="G31" t="n">
-        <v>0.009830537298898901</v>
+        <v>0.0100512651519251</v>
       </c>
       <c r="H31" t="n">
         <v>0.1</v>
@@ -2921,7 +2921,7 @@
         <v>0.00768</v>
       </c>
       <c r="M31" t="n">
-        <v>0.01595</v>
+        <v>0.01663</v>
       </c>
       <c r="N31" t="n">
         <v>0.03005</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.00246</v>
+        <v>0.00276</v>
       </c>
       <c r="G32" t="n">
-        <v>0.009830537298898901</v>
+        <v>0.0100512651519251</v>
       </c>
       <c r="H32" t="n">
         <v>0.1</v>
@@ -3002,7 +3002,7 @@
         <v>0.00768</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01595</v>
+        <v>0.01663</v>
       </c>
       <c r="N32" t="n">
         <v>0.03005</v>
@@ -3069,7 +3069,7 @@
         <v>0.432</v>
       </c>
       <c r="G33" t="n">
-        <v>0.516384602129511</v>
+        <v>0.516565739517869</v>
       </c>
       <c r="H33" t="n">
         <v>1.76</v>
@@ -3150,7 +3150,7 @@
         <v>0.432</v>
       </c>
       <c r="G34" t="n">
-        <v>0.516384602129511</v>
+        <v>0.516565739517869</v>
       </c>
       <c r="H34" t="n">
         <v>1.76</v>
@@ -3304,7 +3304,7 @@
         <v>0.445</v>
       </c>
       <c r="G36" t="n">
-        <v>0.532837251604519</v>
+        <v>0.533006076619067</v>
       </c>
       <c r="H36" t="n">
         <v>1.765</v>
@@ -3381,7 +3381,7 @@
         <v>0.445</v>
       </c>
       <c r="G37" t="n">
-        <v>0.532837251604519</v>
+        <v>0.533006076619067</v>
       </c>
       <c r="H37" t="n">
         <v>1.765</v>
@@ -3928,7 +3928,7 @@
         <v>0.0105</v>
       </c>
       <c r="G44" t="n">
-        <v>0.011833616065003</v>
+        <v>0.0118365111526735</v>
       </c>
       <c r="H44" t="n">
         <v>0.037</v>
@@ -4009,7 +4009,7 @@
         <v>0.0105</v>
       </c>
       <c r="G45" t="n">
-        <v>0.011833616065003</v>
+        <v>0.0118365111526735</v>
       </c>
       <c r="H45" t="n">
         <v>0.037</v>
@@ -4090,10 +4090,10 @@
         <v>150</v>
       </c>
       <c r="G46" t="n">
-        <v>1068.22110692623</v>
+        <v>1061.39025711662</v>
       </c>
       <c r="H46" t="n">
-        <v>14992.5115346305</v>
+        <v>13516.3435359425</v>
       </c>
       <c r="I46" t="n">
         <v>7900</v>
@@ -4175,10 +4175,10 @@
         <v>150</v>
       </c>
       <c r="G47" t="n">
-        <v>1068.22110692623</v>
+        <v>1061.39025711662</v>
       </c>
       <c r="H47" t="n">
-        <v>14992.5115346305</v>
+        <v>13516.3435359425</v>
       </c>
       <c r="I47" t="n">
         <v>7900</v>
@@ -4260,10 +4260,10 @@
         <v>150</v>
       </c>
       <c r="G48" t="n">
-        <v>1068.22110692623</v>
+        <v>1061.39025711662</v>
       </c>
       <c r="H48" t="n">
-        <v>14992.5115346305</v>
+        <v>13516.3435359425</v>
       </c>
       <c r="I48" t="n">
         <v>7900</v>
@@ -4345,10 +4345,10 @@
         <v>150</v>
       </c>
       <c r="G49" t="n">
-        <v>1068.22110692623</v>
+        <v>1061.39025711662</v>
       </c>
       <c r="H49" t="n">
-        <v>14992.5115346305</v>
+        <v>13516.3435359425</v>
       </c>
       <c r="I49" t="n">
         <v>7900</v>
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.00375</v>
+        <v>0.00404</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0116105290654307</v>
+        <v>0.0118370784417931</v>
       </c>
       <c r="H51" t="n">
         <v>0.1</v>
@@ -4518,7 +4518,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>0.01322</v>
+        <v>0.01329</v>
       </c>
       <c r="M51" t="n">
         <v>0.01933</v>
@@ -4585,10 +4585,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.00375</v>
+        <v>0.00404</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0116105290654307</v>
+        <v>0.0118370784417931</v>
       </c>
       <c r="H52" t="n">
         <v>0.1</v>
@@ -4599,7 +4599,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0.01322</v>
+        <v>0.01329</v>
       </c>
       <c r="M52" t="n">
         <v>0.01933</v>
@@ -4669,7 +4669,7 @@
         <v>0.4155</v>
       </c>
       <c r="G53" t="n">
-        <v>0.517501786991849</v>
+        <v>0.517702347635114</v>
       </c>
       <c r="H53" t="n">
         <v>1.76</v>
@@ -4750,7 +4750,7 @@
         <v>0.4155</v>
       </c>
       <c r="G54" t="n">
-        <v>0.517501786991849</v>
+        <v>0.517702347635114</v>
       </c>
       <c r="H54" t="n">
         <v>1.76</v>
@@ -4904,7 +4904,7 @@
         <v>0.431</v>
       </c>
       <c r="G56" t="n">
-        <v>0.532649962423792</v>
+        <v>0.532748510295894</v>
       </c>
       <c r="H56" t="n">
         <v>1.765</v>
@@ -4981,7 +4981,7 @@
         <v>0.431</v>
       </c>
       <c r="G57" t="n">
-        <v>0.532649962423792</v>
+        <v>0.532748510295894</v>
       </c>
       <c r="H57" t="n">
         <v>1.765</v>
@@ -5690,10 +5690,10 @@
         <v>140</v>
       </c>
       <c r="G66" t="n">
-        <v>1158.97549289115</v>
+        <v>1152.14464308153</v>
       </c>
       <c r="H66" t="n">
-        <v>14992.5115346305</v>
+        <v>13516.3435359425</v>
       </c>
       <c r="I66" t="n">
         <v>7900</v>
@@ -5775,10 +5775,10 @@
         <v>140</v>
       </c>
       <c r="G67" t="n">
-        <v>1158.97549289115</v>
+        <v>1152.14464308153</v>
       </c>
       <c r="H67" t="n">
-        <v>14992.5115346305</v>
+        <v>13516.3435359425</v>
       </c>
       <c r="I67" t="n">
         <v>7900</v>
@@ -5860,10 +5860,10 @@
         <v>140</v>
       </c>
       <c r="G68" t="n">
-        <v>1158.97549289115</v>
+        <v>1152.14464308153</v>
       </c>
       <c r="H68" t="n">
-        <v>14992.5115346305</v>
+        <v>13516.3435359425</v>
       </c>
       <c r="I68" t="n">
         <v>7900</v>
@@ -5945,10 +5945,10 @@
         <v>140</v>
       </c>
       <c r="G69" t="n">
-        <v>1158.97549289115</v>
+        <v>1152.14464308153</v>
       </c>
       <c r="H69" t="n">
-        <v>14992.5115346305</v>
+        <v>13516.3435359425</v>
       </c>
       <c r="I69" t="n">
         <v>7900</v>
@@ -6104,10 +6104,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.0056</v>
+        <v>0.00574</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0131363714356053</v>
+        <v>0.0132962454271556</v>
       </c>
       <c r="H71" t="n">
         <v>0.1</v>
@@ -6118,10 +6118,10 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>0.01341</v>
+        <v>0.01365</v>
       </c>
       <c r="M71" t="n">
-        <v>0.02322</v>
+        <v>0.02337</v>
       </c>
       <c r="N71" t="n">
         <v>0.03507</v>
@@ -6185,10 +6185,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.0056</v>
+        <v>0.00574</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0131363714356053</v>
+        <v>0.0132962454271556</v>
       </c>
       <c r="H72" t="n">
         <v>0.1</v>
@@ -6199,10 +6199,10 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>0.01341</v>
+        <v>0.01365</v>
       </c>
       <c r="M72" t="n">
-        <v>0.02322</v>
+        <v>0.02337</v>
       </c>
       <c r="N72" t="n">
         <v>0.03507</v>
@@ -6269,7 +6269,7 @@
         <v>0.309</v>
       </c>
       <c r="G73" t="n">
-        <v>0.438851148988137</v>
+        <v>0.43898706736516</v>
       </c>
       <c r="H73" t="n">
         <v>1.58</v>
@@ -6350,7 +6350,7 @@
         <v>0.309</v>
       </c>
       <c r="G74" t="n">
-        <v>0.438851148988137</v>
+        <v>0.43898706736516</v>
       </c>
       <c r="H74" t="n">
         <v>1.58</v>
@@ -6504,7 +6504,7 @@
         <v>0.337</v>
       </c>
       <c r="G76" t="n">
-        <v>0.45386588085276</v>
+        <v>0.45390986105187</v>
       </c>
       <c r="H76" t="n">
         <v>1.615</v>
@@ -6515,7 +6515,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>0.141</v>
+        <v>0.14125</v>
       </c>
       <c r="M76" t="n">
         <v>0.8878</v>
@@ -6581,7 +6581,7 @@
         <v>0.337</v>
       </c>
       <c r="G77" t="n">
-        <v>0.45386588085276</v>
+        <v>0.45390986105187</v>
       </c>
       <c r="H77" t="n">
         <v>1.615</v>
@@ -6592,7 +6592,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.141</v>
+        <v>0.14125</v>
       </c>
       <c r="M77" t="n">
         <v>0.8878</v>
@@ -7290,10 +7290,10 @@
         <v>120</v>
       </c>
       <c r="G86" t="n">
-        <v>1122.29128236483</v>
+        <v>1115.46043255521</v>
       </c>
       <c r="H86" t="n">
-        <v>14992.5115346305</v>
+        <v>13516.3435359425</v>
       </c>
       <c r="I86" t="n">
         <v>7900</v>
@@ -7375,10 +7375,10 @@
         <v>120</v>
       </c>
       <c r="G87" t="n">
-        <v>1122.29128236483</v>
+        <v>1115.46043255521</v>
       </c>
       <c r="H87" t="n">
-        <v>14992.5115346305</v>
+        <v>13516.3435359425</v>
       </c>
       <c r="I87" t="n">
         <v>7900</v>
@@ -7460,10 +7460,10 @@
         <v>120</v>
       </c>
       <c r="G88" t="n">
-        <v>1122.29128236483</v>
+        <v>1115.46043255521</v>
       </c>
       <c r="H88" t="n">
-        <v>14992.5115346305</v>
+        <v>13516.3435359425</v>
       </c>
       <c r="I88" t="n">
         <v>7900</v>
@@ -7545,10 +7545,10 @@
         <v>120</v>
       </c>
       <c r="G89" t="n">
-        <v>1122.29128236483</v>
+        <v>1115.46043255521</v>
       </c>
       <c r="H89" t="n">
-        <v>14992.5115346305</v>
+        <v>13516.3435359425</v>
       </c>
       <c r="I89" t="n">
         <v>7900</v>
@@ -7704,10 +7704,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.00629</v>
+        <v>0.00644</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0109546765156054</v>
+        <v>0.0110229414722533</v>
       </c>
       <c r="H91" t="n">
         <v>0.0499738233063448</v>
@@ -7785,10 +7785,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.00629</v>
+        <v>0.00644</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0109546765156054</v>
+        <v>0.0110229414722533</v>
       </c>
       <c r="H92" t="n">
         <v>0.0499738233063448</v>
@@ -7869,7 +7869,7 @@
         <v>0.417</v>
       </c>
       <c r="G93" t="n">
-        <v>0.497736889490679</v>
+        <v>0.497847775580576</v>
       </c>
       <c r="H93" t="n">
         <v>1.65</v>
@@ -7950,7 +7950,7 @@
         <v>0.417</v>
       </c>
       <c r="G94" t="n">
-        <v>0.497736889490679</v>
+        <v>0.497847775580576</v>
       </c>
       <c r="H94" t="n">
         <v>1.65</v>
@@ -8104,7 +8104,7 @@
         <v>0.431</v>
       </c>
       <c r="G96" t="n">
-        <v>0.512711621654323</v>
+        <v>0.5127326580096579</v>
       </c>
       <c r="H96" t="n">
         <v>1.675</v>
@@ -8115,10 +8115,10 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.166</v>
+        <v>0.16625</v>
       </c>
       <c r="M96" t="n">
-        <v>1.06356</v>
+        <v>1.06338</v>
       </c>
       <c r="N96" t="n">
         <v>1.21614</v>
@@ -8181,7 +8181,7 @@
         <v>0.431</v>
       </c>
       <c r="G97" t="n">
-        <v>0.512711621654323</v>
+        <v>0.5127326580096579</v>
       </c>
       <c r="H97" t="n">
         <v>1.675</v>
@@ -8192,10 +8192,10 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.166</v>
+        <v>0.16625</v>
       </c>
       <c r="M97" t="n">
-        <v>1.06356</v>
+        <v>1.06338</v>
       </c>
       <c r="N97" t="n">
         <v>1.21614</v>
@@ -8540,6 +8540,1606 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.3978</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.4741</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.58533333333333</v>
+      </c>
+      <c r="H103" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.0142881355932203</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.0343</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.02578</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0142881355932203</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.0343</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.02578</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>146</v>
+      </c>
+      <c r="G106" t="n">
+        <v>965.745597511157</v>
+      </c>
+      <c r="H106" t="n">
+        <v>13516.3435359425</v>
+      </c>
+      <c r="I106" t="n">
+        <v>5807.2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>22.4137931034483</v>
+      </c>
+      <c r="K106" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="L106" t="n">
+        <v>100</v>
+      </c>
+      <c r="M106" t="n">
+        <v>964</v>
+      </c>
+      <c r="N106" t="n">
+        <v>3870.16</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>146</v>
+      </c>
+      <c r="G107" t="n">
+        <v>965.745597511157</v>
+      </c>
+      <c r="H107" t="n">
+        <v>13516.3435359425</v>
+      </c>
+      <c r="I107" t="n">
+        <v>5807.2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>22.4137931034483</v>
+      </c>
+      <c r="K107" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="L107" t="n">
+        <v>100</v>
+      </c>
+      <c r="M107" t="n">
+        <v>964</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3870.16</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>146</v>
+      </c>
+      <c r="G108" t="n">
+        <v>965.745597511157</v>
+      </c>
+      <c r="H108" t="n">
+        <v>13516.3435359425</v>
+      </c>
+      <c r="I108" t="n">
+        <v>5807.2</v>
+      </c>
+      <c r="J108" t="n">
+        <v>22.4137931034483</v>
+      </c>
+      <c r="K108" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="L108" t="n">
+        <v>100</v>
+      </c>
+      <c r="M108" t="n">
+        <v>964</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3870.16</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>146</v>
+      </c>
+      <c r="G109" t="n">
+        <v>965.745597511157</v>
+      </c>
+      <c r="H109" t="n">
+        <v>13516.3435359425</v>
+      </c>
+      <c r="I109" t="n">
+        <v>5807.2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>22.4137931034483</v>
+      </c>
+      <c r="K109" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="L109" t="n">
+        <v>100</v>
+      </c>
+      <c r="M109" t="n">
+        <v>964</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3870.16</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>89</v>
+      </c>
+      <c r="G110" t="n">
+        <v>93.774</v>
+      </c>
+      <c r="H110" t="n">
+        <v>111.11</v>
+      </c>
+      <c r="I110" t="n">
+        <v>111.11</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>89</v>
+      </c>
+      <c r="M110" t="n">
+        <v>106.553</v>
+      </c>
+      <c r="N110" t="n">
+        <v>111.11</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0.00717</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.0104006432611043</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.0499738233063448</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.03486</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>0.01159</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.01826</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.02758</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0.00717</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.0104006432611043</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.0499738233063448</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.03486</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>0.01159</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.01826</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.02758</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.519494423452092</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.4555</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1.2778</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.519494423452092</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1.4555</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1.2778</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>5.787</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5.5764</v>
+      </c>
+      <c r="H115" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="I115" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>5.787</v>
+      </c>
+      <c r="M115" t="n">
+        <v>6.50025</v>
+      </c>
+      <c r="N115" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.533127019738308</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1.46665</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.20025</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1.07578</v>
+      </c>
+      <c r="N116" t="n">
+        <v>1.30216</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.533127019738308</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1.46665</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.20025</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.07578</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1.30216</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P117" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.902203389830509</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1.991</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1.3888</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P118" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.902203389830509</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1.991</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1.3888</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P119" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0654237288135593</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.25535</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>0.0205</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.10576</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.17534</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P120" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Kiwitea at Kimbolton Rd</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.0654237288135593</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.25535</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>0.0205</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.10576</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.17534</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1821031.91</v>
+      </c>
+      <c r="P121" t="n">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>Mana_12d</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/KiwiteaatKimboltonRd_fda899f388.xlsx
+++ b/state_results/Rivers/KiwiteaatKimboltonRd_fda899f388.xlsx
@@ -2490,10 +2490,10 @@
         <v>150</v>
       </c>
       <c r="G26" t="n">
-        <v>1407.74990941775</v>
+        <v>1430.14972903529</v>
       </c>
       <c r="H26" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I26" t="n">
         <v>9678</v>
@@ -2575,10 +2575,10 @@
         <v>150</v>
       </c>
       <c r="G27" t="n">
-        <v>1407.74990941775</v>
+        <v>1430.14972903529</v>
       </c>
       <c r="H27" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I27" t="n">
         <v>9678</v>
@@ -2660,10 +2660,10 @@
         <v>150</v>
       </c>
       <c r="G28" t="n">
-        <v>1407.74990941775</v>
+        <v>1430.14972903529</v>
       </c>
       <c r="H28" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I28" t="n">
         <v>9678</v>
@@ -2745,10 +2745,10 @@
         <v>150</v>
       </c>
       <c r="G29" t="n">
-        <v>1407.74990941775</v>
+        <v>1430.14972903529</v>
       </c>
       <c r="H29" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I29" t="n">
         <v>9678</v>
@@ -4090,10 +4090,10 @@
         <v>150</v>
       </c>
       <c r="G46" t="n">
-        <v>1061.39025711662</v>
+        <v>1084.57603531723</v>
       </c>
       <c r="H46" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I46" t="n">
         <v>7900</v>
@@ -4175,10 +4175,10 @@
         <v>150</v>
       </c>
       <c r="G47" t="n">
-        <v>1061.39025711662</v>
+        <v>1084.57603531723</v>
       </c>
       <c r="H47" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I47" t="n">
         <v>7900</v>
@@ -4260,10 +4260,10 @@
         <v>150</v>
       </c>
       <c r="G48" t="n">
-        <v>1061.39025711662</v>
+        <v>1084.57603531723</v>
       </c>
       <c r="H48" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I48" t="n">
         <v>7900</v>
@@ -4345,10 +4345,10 @@
         <v>150</v>
       </c>
       <c r="G49" t="n">
-        <v>1061.39025711662</v>
+        <v>1084.57603531723</v>
       </c>
       <c r="H49" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I49" t="n">
         <v>7900</v>
@@ -5690,10 +5690,10 @@
         <v>140</v>
       </c>
       <c r="G66" t="n">
-        <v>1152.14464308153</v>
+        <v>1175.33042128215</v>
       </c>
       <c r="H66" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I66" t="n">
         <v>7900</v>
@@ -5775,10 +5775,10 @@
         <v>140</v>
       </c>
       <c r="G67" t="n">
-        <v>1152.14464308153</v>
+        <v>1175.33042128215</v>
       </c>
       <c r="H67" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I67" t="n">
         <v>7900</v>
@@ -5860,10 +5860,10 @@
         <v>140</v>
       </c>
       <c r="G68" t="n">
-        <v>1152.14464308153</v>
+        <v>1175.33042128215</v>
       </c>
       <c r="H68" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I68" t="n">
         <v>7900</v>
@@ -5945,10 +5945,10 @@
         <v>140</v>
       </c>
       <c r="G69" t="n">
-        <v>1152.14464308153</v>
+        <v>1175.33042128215</v>
       </c>
       <c r="H69" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I69" t="n">
         <v>7900</v>
@@ -7290,10 +7290,10 @@
         <v>120</v>
       </c>
       <c r="G86" t="n">
-        <v>1115.46043255521</v>
+        <v>1138.64621075583</v>
       </c>
       <c r="H86" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I86" t="n">
         <v>7900</v>
@@ -7375,10 +7375,10 @@
         <v>120</v>
       </c>
       <c r="G87" t="n">
-        <v>1115.46043255521</v>
+        <v>1138.64621075583</v>
       </c>
       <c r="H87" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I87" t="n">
         <v>7900</v>
@@ -7460,10 +7460,10 @@
         <v>120</v>
       </c>
       <c r="G88" t="n">
-        <v>1115.46043255521</v>
+        <v>1138.64621075583</v>
       </c>
       <c r="H88" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I88" t="n">
         <v>7900</v>
@@ -7545,10 +7545,10 @@
         <v>120</v>
       </c>
       <c r="G89" t="n">
-        <v>1115.46043255521</v>
+        <v>1138.64621075583</v>
       </c>
       <c r="H89" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I89" t="n">
         <v>7900</v>
@@ -8890,10 +8890,10 @@
         <v>146</v>
       </c>
       <c r="G106" t="n">
-        <v>965.745597511157</v>
+        <v>988.531620915213</v>
       </c>
       <c r="H106" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I106" t="n">
         <v>5807.2</v>
@@ -8975,10 +8975,10 @@
         <v>146</v>
       </c>
       <c r="G107" t="n">
-        <v>965.745597511157</v>
+        <v>988.531620915213</v>
       </c>
       <c r="H107" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I107" t="n">
         <v>5807.2</v>
@@ -9060,10 +9060,10 @@
         <v>146</v>
       </c>
       <c r="G108" t="n">
-        <v>965.745597511157</v>
+        <v>988.531620915213</v>
       </c>
       <c r="H108" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I108" t="n">
         <v>5807.2</v>
@@ -9145,10 +9145,10 @@
         <v>146</v>
       </c>
       <c r="G109" t="n">
-        <v>965.745597511157</v>
+        <v>988.531620915213</v>
       </c>
       <c r="H109" t="n">
-        <v>13516.3435359425</v>
+        <v>16441.5570852261</v>
       </c>
       <c r="I109" t="n">
         <v>5807.2</v>

--- a/state_results/Rivers/KiwiteaatKimboltonRd_fda899f388.xlsx
+++ b/state_results/Rivers/KiwiteaatKimboltonRd_fda899f388.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U122"/>
+  <dimension ref="A1:U142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,7 +660,7 @@
         <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>95</v>
@@ -672,7 +675,7 @@
         <v>99</v>
       </c>
       <c r="L2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M2">
         <v>98.64</v>
@@ -687,16 +690,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -713,7 +716,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>0.346</v>
@@ -728,7 +731,7 @@
         <v>0.469</v>
       </c>
       <c r="L3">
-        <v>0.316</v>
+        <v>0.346</v>
       </c>
       <c r="M3">
         <v>0.43505</v>
@@ -743,16 +746,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -769,13 +772,13 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <v>1.4</v>
       </c>
       <c r="G4">
-        <v>1.77119469641527</v>
+        <v>1.77124333786837</v>
       </c>
       <c r="H4">
         <v>7.1</v>
@@ -799,19 +802,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -828,13 +831,13 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5">
         <v>0.011</v>
       </c>
       <c r="G5">
-        <v>0.0119399594285355</v>
+        <v>0.011940929771374</v>
       </c>
       <c r="H5">
         <v>0.031</v>
@@ -858,19 +861,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -887,13 +890,13 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <v>0.011</v>
       </c>
       <c r="G6">
-        <v>0.0119399594285355</v>
+        <v>0.011940929771374</v>
       </c>
       <c r="H6">
         <v>0.031</v>
@@ -917,19 +920,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -946,7 +949,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <v>145</v>
@@ -967,7 +970,7 @@
         <v>39.6551724137931</v>
       </c>
       <c r="L7">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M7">
         <v>984.8</v>
@@ -982,19 +985,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1011,7 +1014,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8">
         <v>145</v>
@@ -1032,7 +1035,7 @@
         <v>39.6551724137931</v>
       </c>
       <c r="L8">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M8">
         <v>984.8</v>
@@ -1047,19 +1050,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1076,7 +1079,7 @@
         <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <v>145</v>
@@ -1097,7 +1100,7 @@
         <v>39.6551724137931</v>
       </c>
       <c r="L9">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9">
         <v>984.8</v>
@@ -1112,19 +1115,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1141,7 +1144,7 @@
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10">
         <v>145</v>
@@ -1162,7 +1165,7 @@
         <v>39.6551724137931</v>
       </c>
       <c r="L10">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M10">
         <v>984.8</v>
@@ -1177,19 +1180,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1206,7 +1209,7 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11">
         <v>93</v>
@@ -1221,7 +1224,7 @@
         <v>99</v>
       </c>
       <c r="L11">
-        <v>92.5</v>
+        <v>93</v>
       </c>
       <c r="M11">
         <v>98.3</v>
@@ -1236,16 +1239,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1262,13 +1265,13 @@
         <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12">
-        <v>0.00208</v>
+        <v>0.00221</v>
       </c>
       <c r="G12">
-        <v>0.0079508567877498</v>
+        <v>0.008117590761974301</v>
       </c>
       <c r="H12">
         <v>0.1</v>
@@ -1277,10 +1280,10 @@
         <v>0.02923</v>
       </c>
       <c r="L12">
-        <v>0.00208</v>
+        <v>0.00216</v>
       </c>
       <c r="M12">
-        <v>0.01414</v>
+        <v>0.01566</v>
       </c>
       <c r="N12">
         <v>0.01889</v>
@@ -1292,19 +1295,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1321,13 +1324,13 @@
         <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13">
-        <v>0.00208</v>
+        <v>0.00221</v>
       </c>
       <c r="G13">
-        <v>0.0079508567877498</v>
+        <v>0.008117590761974301</v>
       </c>
       <c r="H13">
         <v>0.1</v>
@@ -1336,10 +1339,10 @@
         <v>0.02923</v>
       </c>
       <c r="L13">
-        <v>0.00208</v>
+        <v>0.00216</v>
       </c>
       <c r="M13">
-        <v>0.01414</v>
+        <v>0.01566</v>
       </c>
       <c r="N13">
         <v>0.01889</v>
@@ -1351,19 +1354,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1380,13 +1383,13 @@
         <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14">
         <v>0.35765</v>
       </c>
       <c r="G14">
-        <v>0.491883212265945</v>
+        <v>0.491729087284538</v>
       </c>
       <c r="H14">
         <v>1.76</v>
@@ -1395,7 +1398,7 @@
         <v>1.552</v>
       </c>
       <c r="L14">
-        <v>0.07305</v>
+        <v>0.095</v>
       </c>
       <c r="M14">
         <v>0.99866</v>
@@ -1410,19 +1413,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1439,13 +1442,13 @@
         <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15">
         <v>0.35765</v>
       </c>
       <c r="G15">
-        <v>0.491883212265945</v>
+        <v>0.491729087284538</v>
       </c>
       <c r="H15">
         <v>1.76</v>
@@ -1454,7 +1457,7 @@
         <v>1.552</v>
       </c>
       <c r="L15">
-        <v>0.07305</v>
+        <v>0.095</v>
       </c>
       <c r="M15">
         <v>0.99866</v>
@@ -1469,19 +1472,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1498,7 +1501,7 @@
         <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16">
         <v>3.91</v>
@@ -1513,7 +1516,7 @@
         <v>6.57</v>
       </c>
       <c r="L16">
-        <v>3.835</v>
+        <v>3.91</v>
       </c>
       <c r="M16">
         <v>6.346</v>
@@ -1528,16 +1531,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1551,13 +1554,13 @@
         <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17">
         <v>0.3782</v>
       </c>
       <c r="G17">
-        <v>0.50683559234422</v>
+        <v>0.506657871236272</v>
       </c>
       <c r="H17">
         <v>1.765</v>
@@ -1566,7 +1569,7 @@
         <v>1.575</v>
       </c>
       <c r="L17">
-        <v>0.08805</v>
+        <v>0.105</v>
       </c>
       <c r="M17">
         <v>1.02166</v>
@@ -1581,19 +1584,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1607,13 +1610,13 @@
         <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18">
         <v>0.3782</v>
       </c>
       <c r="G18">
-        <v>0.50683559234422</v>
+        <v>0.506657871236272</v>
       </c>
       <c r="H18">
         <v>1.765</v>
@@ -1622,7 +1625,7 @@
         <v>1.575</v>
       </c>
       <c r="L18">
-        <v>0.08805</v>
+        <v>0.105</v>
       </c>
       <c r="M18">
         <v>1.02166</v>
@@ -1637,19 +1640,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1663,7 +1666,7 @@
         <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19">
         <v>0.775</v>
@@ -1678,7 +1681,7 @@
         <v>1.958</v>
       </c>
       <c r="L19">
-        <v>0.395</v>
+        <v>0.441</v>
       </c>
       <c r="M19">
         <v>1.7092</v>
@@ -1693,19 +1696,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1719,7 +1722,7 @@
         <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F20">
         <v>0.775</v>
@@ -1734,7 +1737,7 @@
         <v>1.958</v>
       </c>
       <c r="L20">
-        <v>0.395</v>
+        <v>0.441</v>
       </c>
       <c r="M20">
         <v>1.7092</v>
@@ -1749,19 +1752,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1775,7 +1778,7 @@
         <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21">
         <v>0.0275</v>
@@ -1790,7 +1793,7 @@
         <v>0.4536</v>
       </c>
       <c r="L21">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="M21">
         <v>0.08348</v>
@@ -1805,19 +1808,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1831,7 +1834,7 @@
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22">
         <v>0.0275</v>
@@ -1846,7 +1849,7 @@
         <v>0.4536</v>
       </c>
       <c r="L22">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="M22">
         <v>0.08348</v>
@@ -1861,19 +1864,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1890,7 +1893,7 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23">
         <v>0.372</v>
@@ -1905,7 +1908,7 @@
         <v>0.469</v>
       </c>
       <c r="L23">
-        <v>0.399</v>
+        <v>0.372</v>
       </c>
       <c r="M23">
         <v>0.46305</v>
@@ -1920,16 +1923,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1946,13 +1949,13 @@
         <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24">
         <v>0.95</v>
       </c>
       <c r="G24">
-        <v>1.6132522180999</v>
+        <v>1.61329738516349</v>
       </c>
       <c r="H24">
         <v>7.1</v>
@@ -1961,7 +1964,7 @@
         <v>4.07</v>
       </c>
       <c r="L24">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M24">
         <v>3.097</v>
@@ -1976,19 +1979,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2005,13 +2008,13 @@
         <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25">
         <v>0.012</v>
       </c>
       <c r="G25">
-        <v>0.0126189431670349</v>
+        <v>0.0126198970633846</v>
       </c>
       <c r="H25">
         <v>0.037</v>
@@ -2020,7 +2023,7 @@
         <v>0.02475</v>
       </c>
       <c r="L25">
-        <v>0.0115</v>
+        <v>0.011</v>
       </c>
       <c r="M25">
         <v>0.01747</v>
@@ -2035,19 +2038,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2064,13 +2067,13 @@
         <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26">
         <v>0.012</v>
       </c>
       <c r="G26">
-        <v>0.0126189431670349</v>
+        <v>0.0126198970633846</v>
       </c>
       <c r="H26">
         <v>0.037</v>
@@ -2079,7 +2082,7 @@
         <v>0.02475</v>
       </c>
       <c r="L26">
-        <v>0.0115</v>
+        <v>0.011</v>
       </c>
       <c r="M26">
         <v>0.01747</v>
@@ -2094,19 +2097,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2123,16 +2126,16 @@
         <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27">
         <v>150</v>
       </c>
       <c r="G27">
-        <v>1350.41221008209</v>
+        <v>1453.31188937197</v>
       </c>
       <c r="H27">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I27">
         <v>9678</v>
@@ -2159,19 +2162,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2188,16 +2191,16 @@
         <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28">
         <v>150</v>
       </c>
       <c r="G28">
-        <v>1350.41221008209</v>
+        <v>1453.31188937197</v>
       </c>
       <c r="H28">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I28">
         <v>9678</v>
@@ -2224,19 +2227,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2253,16 +2256,16 @@
         <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F29">
         <v>150</v>
       </c>
       <c r="G29">
-        <v>1350.41221008209</v>
+        <v>1453.31188937197</v>
       </c>
       <c r="H29">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I29">
         <v>9678</v>
@@ -2289,19 +2292,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2318,16 +2321,16 @@
         <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F30">
         <v>150</v>
       </c>
       <c r="G30">
-        <v>1350.41221008209</v>
+        <v>1453.31188937197</v>
       </c>
       <c r="H30">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I30">
         <v>9678</v>
@@ -2354,19 +2357,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2383,7 +2386,7 @@
         <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F31">
         <v>92</v>
@@ -2398,7 +2401,7 @@
         <v>99</v>
       </c>
       <c r="L31">
-        <v>90.5</v>
+        <v>92</v>
       </c>
       <c r="M31">
         <v>98.3</v>
@@ -2413,16 +2416,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2439,13 +2442,13 @@
         <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32">
-        <v>0.00276</v>
+        <v>0.00307</v>
       </c>
       <c r="G32">
-        <v>0.0100512651519251</v>
+        <v>0.0102932334174293</v>
       </c>
       <c r="H32">
         <v>0.1</v>
@@ -2454,10 +2457,10 @@
         <v>0.04521</v>
       </c>
       <c r="L32">
-        <v>0.00768</v>
+        <v>0.00435</v>
       </c>
       <c r="M32">
-        <v>0.01663</v>
+        <v>0.01828</v>
       </c>
       <c r="N32">
         <v>0.03005</v>
@@ -2469,19 +2472,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2498,13 +2501,13 @@
         <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33">
-        <v>0.00276</v>
+        <v>0.00307</v>
       </c>
       <c r="G33">
-        <v>0.0100512651519251</v>
+        <v>0.0102932334174293</v>
       </c>
       <c r="H33">
         <v>0.1</v>
@@ -2513,10 +2516,10 @@
         <v>0.04521</v>
       </c>
       <c r="L33">
-        <v>0.00768</v>
+        <v>0.00435</v>
       </c>
       <c r="M33">
-        <v>0.01663</v>
+        <v>0.01828</v>
       </c>
       <c r="N33">
         <v>0.03005</v>
@@ -2528,19 +2531,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2557,13 +2560,13 @@
         <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F34">
         <v>0.432</v>
       </c>
       <c r="G34">
-        <v>0.516565739517869</v>
+        <v>0.516330347886215</v>
       </c>
       <c r="H34">
         <v>1.76</v>
@@ -2572,7 +2575,7 @@
         <v>1.5485</v>
       </c>
       <c r="L34">
-        <v>0.0465</v>
+        <v>0.104</v>
       </c>
       <c r="M34">
         <v>1.0747</v>
@@ -2587,19 +2590,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2616,13 +2619,13 @@
         <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F35">
         <v>0.432</v>
       </c>
       <c r="G35">
-        <v>0.516565739517869</v>
+        <v>0.516330347886215</v>
       </c>
       <c r="H35">
         <v>1.76</v>
@@ -2631,7 +2634,7 @@
         <v>1.5485</v>
       </c>
       <c r="L35">
-        <v>0.0465</v>
+        <v>0.104</v>
       </c>
       <c r="M35">
         <v>1.0747</v>
@@ -2646,19 +2649,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2669,13 +2672,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
         <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F36">
         <v>5.93</v>
@@ -2690,7 +2693,7 @@
         <v>6.81</v>
       </c>
       <c r="L36">
-        <v>4.92</v>
+        <v>5.93</v>
       </c>
       <c r="M36">
         <v>6.726</v>
@@ -2705,16 +2708,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2728,13 +2731,13 @@
         <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F37">
         <v>0.445</v>
       </c>
       <c r="G37">
-        <v>0.533006076619067</v>
+        <v>0.532784193289265</v>
       </c>
       <c r="H37">
         <v>1.765</v>
@@ -2743,7 +2746,7 @@
         <v>1.57</v>
       </c>
       <c r="L37">
-        <v>0.0625</v>
+        <v>0.12</v>
       </c>
       <c r="M37">
         <v>1.09235</v>
@@ -2758,19 +2761,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2784,13 +2787,13 @@
         <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F38">
         <v>0.445</v>
       </c>
       <c r="G38">
-        <v>0.533006076619067</v>
+        <v>0.532784193289265</v>
       </c>
       <c r="H38">
         <v>1.765</v>
@@ -2799,7 +2802,7 @@
         <v>1.57</v>
       </c>
       <c r="L38">
-        <v>0.0625</v>
+        <v>0.12</v>
       </c>
       <c r="M38">
         <v>1.09235</v>
@@ -2814,19 +2817,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2840,7 +2843,7 @@
         <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F39">
         <v>0.85</v>
@@ -2855,7 +2858,7 @@
         <v>1.9085</v>
       </c>
       <c r="L39">
-        <v>0.375</v>
+        <v>0.47</v>
       </c>
       <c r="M39">
         <v>1.7041</v>
@@ -2870,19 +2873,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2896,7 +2899,7 @@
         <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F40">
         <v>0.85</v>
@@ -2911,7 +2914,7 @@
         <v>1.9085</v>
       </c>
       <c r="L40">
-        <v>0.375</v>
+        <v>0.47</v>
       </c>
       <c r="M40">
         <v>1.7041</v>
@@ -2926,19 +2929,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2952,7 +2955,7 @@
         <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F41">
         <v>0.033</v>
@@ -2982,19 +2985,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3008,7 +3011,7 @@
         <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F42">
         <v>0.033</v>
@@ -3038,19 +3041,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3067,7 +3070,7 @@
         <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F43">
         <v>0.372</v>
@@ -3082,7 +3085,7 @@
         <v>0.452</v>
       </c>
       <c r="L43">
-        <v>0.3935</v>
+        <v>0.372</v>
       </c>
       <c r="M43">
         <v>0.44815</v>
@@ -3097,16 +3100,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3123,7 +3126,7 @@
         <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F44">
         <v>0.95</v>
@@ -3138,7 +3141,7 @@
         <v>4.06</v>
       </c>
       <c r="L44">
-        <v>2.125</v>
+        <v>2.15</v>
       </c>
       <c r="M44">
         <v>2.998</v>
@@ -3153,19 +3156,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3182,13 +3185,13 @@
         <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45">
         <v>0.0105</v>
       </c>
       <c r="G45">
-        <v>0.0118365111526735</v>
+        <v>0.0118374814955119</v>
       </c>
       <c r="H45">
         <v>0.037</v>
@@ -3197,7 +3200,7 @@
         <v>0.025</v>
       </c>
       <c r="L45">
-        <v>0.008999999999999999</v>
+        <v>0.0095</v>
       </c>
       <c r="M45">
         <v>0.017</v>
@@ -3212,19 +3215,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3241,13 +3244,13 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F46">
         <v>0.0105</v>
       </c>
       <c r="G46">
-        <v>0.0118365111526735</v>
+        <v>0.0118374814955119</v>
       </c>
       <c r="H46">
         <v>0.037</v>
@@ -3256,7 +3259,7 @@
         <v>0.025</v>
       </c>
       <c r="L46">
-        <v>0.008999999999999999</v>
+        <v>0.0095</v>
       </c>
       <c r="M46">
         <v>0.017</v>
@@ -3271,19 +3274,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3300,16 +3303,16 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F47">
         <v>150</v>
       </c>
       <c r="G47">
-        <v>1002.04070868146</v>
+        <v>1108.55090303415</v>
       </c>
       <c r="H47">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I47">
         <v>7900</v>
@@ -3336,19 +3339,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3365,16 +3368,16 @@
         <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F48">
         <v>150</v>
       </c>
       <c r="G48">
-        <v>1002.04070868146</v>
+        <v>1108.55090303415</v>
       </c>
       <c r="H48">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I48">
         <v>7900</v>
@@ -3401,19 +3404,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3430,16 +3433,16 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F49">
         <v>150</v>
       </c>
       <c r="G49">
-        <v>1002.04070868146</v>
+        <v>1108.55090303415</v>
       </c>
       <c r="H49">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I49">
         <v>7900</v>
@@ -3466,19 +3469,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3495,16 +3498,16 @@
         <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F50">
         <v>150</v>
       </c>
       <c r="G50">
-        <v>1002.04070868146</v>
+        <v>1108.55090303415</v>
       </c>
       <c r="H50">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I50">
         <v>7900</v>
@@ -3531,19 +3534,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3560,7 +3563,7 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F51">
         <v>92</v>
@@ -3575,7 +3578,7 @@
         <v>99</v>
       </c>
       <c r="L51">
-        <v>90.5</v>
+        <v>92</v>
       </c>
       <c r="M51">
         <v>98.6815</v>
@@ -3590,16 +3593,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3616,13 +3619,13 @@
         <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F52">
-        <v>0.00404</v>
+        <v>0.00444</v>
       </c>
       <c r="G52">
-        <v>0.0118370784417931</v>
+        <v>0.0120882190122705</v>
       </c>
       <c r="H52">
         <v>0.1</v>
@@ -3631,7 +3634,7 @@
         <v>0.04848</v>
       </c>
       <c r="L52">
-        <v>0.01329</v>
+        <v>0.00663</v>
       </c>
       <c r="M52">
         <v>0.01933</v>
@@ -3646,19 +3649,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3675,13 +3678,13 @@
         <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F53">
-        <v>0.00404</v>
+        <v>0.00444</v>
       </c>
       <c r="G53">
-        <v>0.0118370784417931</v>
+        <v>0.0120882190122705</v>
       </c>
       <c r="H53">
         <v>0.1</v>
@@ -3690,7 +3693,7 @@
         <v>0.04848</v>
       </c>
       <c r="L53">
-        <v>0.01329</v>
+        <v>0.00663</v>
       </c>
       <c r="M53">
         <v>0.01933</v>
@@ -3705,19 +3708,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3734,13 +3737,13 @@
         <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F54">
         <v>0.4155</v>
       </c>
       <c r="G54">
-        <v>0.517702347635114</v>
+        <v>0.517396739911144</v>
       </c>
       <c r="H54">
         <v>1.76</v>
@@ -3749,7 +3752,7 @@
         <v>1.552</v>
       </c>
       <c r="L54">
-        <v>0.0795</v>
+        <v>0.1225</v>
       </c>
       <c r="M54">
         <v>1.0664</v>
@@ -3764,19 +3767,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3793,13 +3796,13 @@
         <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F55">
         <v>0.4155</v>
       </c>
       <c r="G55">
-        <v>0.517702347635114</v>
+        <v>0.517396739911144</v>
       </c>
       <c r="H55">
         <v>1.76</v>
@@ -3808,7 +3811,7 @@
         <v>1.552</v>
       </c>
       <c r="L55">
-        <v>0.0795</v>
+        <v>0.1225</v>
       </c>
       <c r="M55">
         <v>1.0664</v>
@@ -3823,19 +3826,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3846,13 +3849,13 @@
         <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D56" t="s">
         <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F56">
         <v>5.787</v>
@@ -3867,7 +3870,7 @@
         <v>6.81</v>
       </c>
       <c r="L56">
-        <v>4.8485</v>
+        <v>5.787</v>
       </c>
       <c r="M56">
         <v>6.726</v>
@@ -3882,16 +3885,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3905,13 +3908,13 @@
         <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F57">
         <v>0.431</v>
       </c>
       <c r="G57">
-        <v>0.532748510295894</v>
+        <v>0.532566662042726</v>
       </c>
       <c r="H57">
         <v>1.765</v>
@@ -3920,7 +3923,7 @@
         <v>1.575</v>
       </c>
       <c r="L57">
-        <v>0.0975</v>
+        <v>0.141</v>
       </c>
       <c r="M57">
         <v>1.081</v>
@@ -3935,19 +3938,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3961,13 +3964,13 @@
         <v>50</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F58">
         <v>0.431</v>
       </c>
       <c r="G58">
-        <v>0.532748510295894</v>
+        <v>0.532566662042726</v>
       </c>
       <c r="H58">
         <v>1.765</v>
@@ -3976,7 +3979,7 @@
         <v>1.575</v>
       </c>
       <c r="L58">
-        <v>0.0975</v>
+        <v>0.141</v>
       </c>
       <c r="M58">
         <v>1.081</v>
@@ -3991,19 +3994,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4017,7 +4020,7 @@
         <v>50</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F59">
         <v>0.775</v>
@@ -4032,7 +4035,7 @@
         <v>1.958</v>
       </c>
       <c r="L59">
-        <v>0.395</v>
+        <v>0.445</v>
       </c>
       <c r="M59">
         <v>1.5428</v>
@@ -4047,19 +4050,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4073,7 +4076,7 @@
         <v>50</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F60">
         <v>0.775</v>
@@ -4088,7 +4091,7 @@
         <v>1.958</v>
       </c>
       <c r="L60">
-        <v>0.395</v>
+        <v>0.445</v>
       </c>
       <c r="M60">
         <v>1.5428</v>
@@ -4103,19 +4106,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4129,7 +4132,7 @@
         <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F61">
         <v>0.0275</v>
@@ -4144,7 +4147,7 @@
         <v>0.2618</v>
       </c>
       <c r="L61">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="M61">
         <v>0.07864</v>
@@ -4159,19 +4162,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4185,7 +4188,7 @@
         <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F62">
         <v>0.0275</v>
@@ -4200,7 +4203,7 @@
         <v>0.2618</v>
       </c>
       <c r="L62">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="M62">
         <v>0.07864</v>
@@ -4215,19 +4218,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4244,7 +4247,7 @@
         <v>51</v>
       </c>
       <c r="E63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F63">
         <v>0.372</v>
@@ -4259,7 +4262,7 @@
         <v>0.452</v>
       </c>
       <c r="L63">
-        <v>0.3955</v>
+        <v>0.372</v>
       </c>
       <c r="M63">
         <v>0.44815</v>
@@ -4274,16 +4277,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4300,7 +4303,7 @@
         <v>51</v>
       </c>
       <c r="E64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -4330,19 +4333,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4359,7 +4362,7 @@
         <v>51</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F65">
         <v>0.011</v>
@@ -4374,7 +4377,7 @@
         <v>0.0346</v>
       </c>
       <c r="L65">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="M65">
         <v>0.017</v>
@@ -4389,19 +4392,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4418,7 +4421,7 @@
         <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F66">
         <v>0.011</v>
@@ -4433,7 +4436,7 @@
         <v>0.0346</v>
       </c>
       <c r="L66">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="M66">
         <v>0.017</v>
@@ -4448,19 +4451,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4477,16 +4480,16 @@
         <v>51</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F67">
         <v>140</v>
       </c>
       <c r="G67">
-        <v>1092.79509464638</v>
+        <v>1199.30528899906</v>
       </c>
       <c r="H67">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I67">
         <v>7900</v>
@@ -4513,19 +4516,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4542,16 +4545,16 @@
         <v>51</v>
       </c>
       <c r="E68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F68">
         <v>140</v>
       </c>
       <c r="G68">
-        <v>1092.79509464638</v>
+        <v>1199.30528899906</v>
       </c>
       <c r="H68">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I68">
         <v>7900</v>
@@ -4578,19 +4581,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4607,16 +4610,16 @@
         <v>51</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F69">
         <v>140</v>
       </c>
       <c r="G69">
-        <v>1092.79509464638</v>
+        <v>1199.30528899906</v>
       </c>
       <c r="H69">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I69">
         <v>7900</v>
@@ -4643,19 +4646,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4672,16 +4675,16 @@
         <v>51</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F70">
         <v>140</v>
       </c>
       <c r="G70">
-        <v>1092.79509464638</v>
+        <v>1199.30528899906</v>
       </c>
       <c r="H70">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I70">
         <v>7900</v>
@@ -4708,19 +4711,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4737,7 +4740,7 @@
         <v>51</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F71">
         <v>92</v>
@@ -4752,7 +4755,7 @@
         <v>99</v>
       </c>
       <c r="L71">
-        <v>90.5</v>
+        <v>92</v>
       </c>
       <c r="M71">
         <v>98.6815</v>
@@ -4767,16 +4770,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4793,13 +4796,13 @@
         <v>51</v>
       </c>
       <c r="E72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F72">
-        <v>0.00574</v>
+        <v>0.00594</v>
       </c>
       <c r="G72">
-        <v>0.0132962454271556</v>
+        <v>0.0134913260038997</v>
       </c>
       <c r="H72">
         <v>0.1</v>
@@ -4808,10 +4811,10 @@
         <v>0.0485</v>
       </c>
       <c r="L72">
-        <v>0.01365</v>
+        <v>0.0104</v>
       </c>
       <c r="M72">
-        <v>0.02337</v>
+        <v>0.02436</v>
       </c>
       <c r="N72">
         <v>0.03507</v>
@@ -4823,19 +4826,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4852,13 +4855,13 @@
         <v>51</v>
       </c>
       <c r="E73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F73">
-        <v>0.00574</v>
+        <v>0.00594</v>
       </c>
       <c r="G73">
-        <v>0.0132962454271556</v>
+        <v>0.0134913260038997</v>
       </c>
       <c r="H73">
         <v>0.1</v>
@@ -4867,10 +4870,10 @@
         <v>0.0485</v>
       </c>
       <c r="L73">
-        <v>0.01365</v>
+        <v>0.0104</v>
       </c>
       <c r="M73">
-        <v>0.02337</v>
+        <v>0.02436</v>
       </c>
       <c r="N73">
         <v>0.03507</v>
@@ -4882,19 +4885,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4911,13 +4914,13 @@
         <v>51</v>
       </c>
       <c r="E74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F74">
         <v>0.309</v>
       </c>
       <c r="G74">
-        <v>0.43898706736516</v>
+        <v>0.438761013265778</v>
       </c>
       <c r="H74">
         <v>1.58</v>
@@ -4926,7 +4929,7 @@
         <v>1.204</v>
       </c>
       <c r="L74">
-        <v>0.13</v>
+        <v>0.166</v>
       </c>
       <c r="M74">
         <v>0.86968</v>
@@ -4941,19 +4944,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4970,13 +4973,13 @@
         <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F75">
         <v>0.309</v>
       </c>
       <c r="G75">
-        <v>0.43898706736516</v>
+        <v>0.438761013265778</v>
       </c>
       <c r="H75">
         <v>1.58</v>
@@ -4985,7 +4988,7 @@
         <v>1.204</v>
       </c>
       <c r="L75">
-        <v>0.13</v>
+        <v>0.166</v>
       </c>
       <c r="M75">
         <v>0.86968</v>
@@ -5000,19 +5003,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5023,13 +5026,13 @@
         <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D76" t="s">
         <v>51</v>
       </c>
       <c r="E76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F76">
         <v>5.787</v>
@@ -5044,7 +5047,7 @@
         <v>6.81</v>
       </c>
       <c r="L76">
-        <v>5.4135</v>
+        <v>5.787</v>
       </c>
       <c r="M76">
         <v>6.726</v>
@@ -5059,16 +5062,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5082,13 +5085,13 @@
         <v>51</v>
       </c>
       <c r="E77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F77">
         <v>0.337</v>
       </c>
       <c r="G77">
-        <v>0.45390986105187</v>
+        <v>0.45381994269546</v>
       </c>
       <c r="H77">
         <v>1.615</v>
@@ -5097,7 +5100,7 @@
         <v>1.211</v>
       </c>
       <c r="L77">
-        <v>0.14125</v>
+        <v>0.18825</v>
       </c>
       <c r="M77">
         <v>0.8878</v>
@@ -5112,19 +5115,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U77" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5138,13 +5141,13 @@
         <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F78">
         <v>0.337</v>
       </c>
       <c r="G78">
-        <v>0.45390986105187</v>
+        <v>0.45381994269546</v>
       </c>
       <c r="H78">
         <v>1.615</v>
@@ -5153,7 +5156,7 @@
         <v>1.211</v>
       </c>
       <c r="L78">
-        <v>0.14125</v>
+        <v>0.18825</v>
       </c>
       <c r="M78">
         <v>0.8878</v>
@@ -5168,19 +5171,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U78" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5194,7 +5197,7 @@
         <v>51</v>
       </c>
       <c r="E79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F79">
         <v>0.675</v>
@@ -5209,7 +5212,7 @@
         <v>1.912</v>
       </c>
       <c r="L79">
-        <v>0.42</v>
+        <v>0.535</v>
       </c>
       <c r="M79">
         <v>1.3764</v>
@@ -5224,19 +5227,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5250,7 +5253,7 @@
         <v>51</v>
       </c>
       <c r="E80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F80">
         <v>0.675</v>
@@ -5265,7 +5268,7 @@
         <v>1.912</v>
       </c>
       <c r="L80">
-        <v>0.42</v>
+        <v>0.535</v>
       </c>
       <c r="M80">
         <v>1.3764</v>
@@ -5280,19 +5283,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U80" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5306,7 +5309,7 @@
         <v>51</v>
       </c>
       <c r="E81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F81">
         <v>0.0245</v>
@@ -5321,7 +5324,7 @@
         <v>0.2618</v>
       </c>
       <c r="L81">
-        <v>0.02</v>
+        <v>0.0195</v>
       </c>
       <c r="M81">
         <v>0.08348</v>
@@ -5336,19 +5339,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5362,7 +5365,7 @@
         <v>51</v>
       </c>
       <c r="E82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F82">
         <v>0.0245</v>
@@ -5377,7 +5380,7 @@
         <v>0.2618</v>
       </c>
       <c r="L82">
-        <v>0.02</v>
+        <v>0.0195</v>
       </c>
       <c r="M82">
         <v>0.08348</v>
@@ -5392,19 +5395,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U82" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5421,7 +5424,7 @@
         <v>52</v>
       </c>
       <c r="E83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F83">
         <v>0.35</v>
@@ -5451,16 +5454,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5477,7 +5480,7 @@
         <v>52</v>
       </c>
       <c r="E84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F84">
         <v>1.3</v>
@@ -5492,7 +5495,7 @@
         <v>4.9</v>
       </c>
       <c r="L84">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="M84">
         <v>3.1</v>
@@ -5507,19 +5510,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5536,7 +5539,7 @@
         <v>52</v>
       </c>
       <c r="E85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F85">
         <v>0.011</v>
@@ -5551,7 +5554,7 @@
         <v>0.0346</v>
       </c>
       <c r="L85">
-        <v>0.008500000000000001</v>
+        <v>0.0095</v>
       </c>
       <c r="M85">
         <v>0.01864</v>
@@ -5566,19 +5569,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5595,7 +5598,7 @@
         <v>52</v>
       </c>
       <c r="E86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F86">
         <v>0.011</v>
@@ -5610,7 +5613,7 @@
         <v>0.0346</v>
       </c>
       <c r="L86">
-        <v>0.008500000000000001</v>
+        <v>0.0095</v>
       </c>
       <c r="M86">
         <v>0.01864</v>
@@ -5625,19 +5628,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5654,16 +5657,16 @@
         <v>52</v>
       </c>
       <c r="E87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F87">
         <v>120</v>
       </c>
       <c r="G87">
-        <v>1056.11088412006</v>
+        <v>1162.62458724467</v>
       </c>
       <c r="H87">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I87">
         <v>7900</v>
@@ -5675,7 +5678,7 @@
         <v>31.5789473684211</v>
       </c>
       <c r="L87">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M87">
         <v>888.6</v>
@@ -5690,19 +5693,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5719,16 +5722,16 @@
         <v>52</v>
       </c>
       <c r="E88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F88">
         <v>120</v>
       </c>
       <c r="G88">
-        <v>1056.11088412006</v>
+        <v>1162.62458724467</v>
       </c>
       <c r="H88">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I88">
         <v>7900</v>
@@ -5740,7 +5743,7 @@
         <v>31.5789473684211</v>
       </c>
       <c r="L88">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M88">
         <v>888.6</v>
@@ -5755,19 +5758,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5784,16 +5787,16 @@
         <v>52</v>
       </c>
       <c r="E89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F89">
         <v>120</v>
       </c>
       <c r="G89">
-        <v>1056.11088412006</v>
+        <v>1162.62458724467</v>
       </c>
       <c r="H89">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I89">
         <v>7900</v>
@@ -5805,7 +5808,7 @@
         <v>31.5789473684211</v>
       </c>
       <c r="L89">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M89">
         <v>888.6</v>
@@ -5820,19 +5823,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5849,16 +5852,16 @@
         <v>52</v>
       </c>
       <c r="E90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F90">
         <v>120</v>
       </c>
       <c r="G90">
-        <v>1056.11088412006</v>
+        <v>1162.62458724467</v>
       </c>
       <c r="H90">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I90">
         <v>7900</v>
@@ -5870,7 +5873,7 @@
         <v>31.5789473684211</v>
       </c>
       <c r="L90">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M90">
         <v>888.6</v>
@@ -5885,19 +5888,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5914,7 +5917,7 @@
         <v>52</v>
       </c>
       <c r="E91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F91">
         <v>89</v>
@@ -5944,16 +5947,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -5970,13 +5973,13 @@
         <v>52</v>
       </c>
       <c r="E92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F92">
-        <v>0.00644</v>
+        <v>0.00665</v>
       </c>
       <c r="G92">
-        <v>0.0110229414722533</v>
+        <v>0.0111377570966238</v>
       </c>
       <c r="H92">
         <v>0.0499738233063448</v>
@@ -6000,19 +6003,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6029,13 +6032,13 @@
         <v>52</v>
       </c>
       <c r="E93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F93">
-        <v>0.00644</v>
+        <v>0.00665</v>
       </c>
       <c r="G93">
-        <v>0.0110229414722533</v>
+        <v>0.0111377570966238</v>
       </c>
       <c r="H93">
         <v>0.0499738233063448</v>
@@ -6059,19 +6062,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U93" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6088,13 +6091,13 @@
         <v>52</v>
       </c>
       <c r="E94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F94">
         <v>0.417</v>
       </c>
       <c r="G94">
-        <v>0.497847775580576</v>
+        <v>0.497657288726709</v>
       </c>
       <c r="H94">
         <v>1.65</v>
@@ -6103,7 +6106,7 @@
         <v>1.276</v>
       </c>
       <c r="L94">
-        <v>0.153</v>
+        <v>0.182</v>
       </c>
       <c r="M94">
         <v>1.0564</v>
@@ -6118,19 +6121,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U94" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6147,13 +6150,13 @@
         <v>52</v>
       </c>
       <c r="E95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F95">
         <v>0.417</v>
       </c>
       <c r="G95">
-        <v>0.497847775580576</v>
+        <v>0.497657288726709</v>
       </c>
       <c r="H95">
         <v>1.65</v>
@@ -6162,7 +6165,7 @@
         <v>1.276</v>
       </c>
       <c r="L95">
-        <v>0.153</v>
+        <v>0.182</v>
       </c>
       <c r="M95">
         <v>1.0564</v>
@@ -6177,19 +6180,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U95" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6206,7 +6209,7 @@
         <v>52</v>
       </c>
       <c r="E96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F96">
         <v>5.04</v>
@@ -6236,16 +6239,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6259,13 +6262,13 @@
         <v>52</v>
       </c>
       <c r="E97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F97">
         <v>0.431</v>
       </c>
       <c r="G97">
-        <v>0.5127326580096579</v>
+        <v>0.512684670213152</v>
       </c>
       <c r="H97">
         <v>1.675</v>
@@ -6274,7 +6277,7 @@
         <v>1.2982</v>
       </c>
       <c r="L97">
-        <v>0.16625</v>
+        <v>0.208</v>
       </c>
       <c r="M97">
         <v>1.06338</v>
@@ -6289,19 +6292,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6315,13 +6318,13 @@
         <v>52</v>
       </c>
       <c r="E98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F98">
         <v>0.431</v>
       </c>
       <c r="G98">
-        <v>0.5127326580096579</v>
+        <v>0.512684670213152</v>
       </c>
       <c r="H98">
         <v>1.675</v>
@@ -6330,7 +6333,7 @@
         <v>1.2982</v>
       </c>
       <c r="L98">
-        <v>0.16625</v>
+        <v>0.208</v>
       </c>
       <c r="M98">
         <v>1.06338</v>
@@ -6345,19 +6348,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U98" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6371,7 +6374,7 @@
         <v>52</v>
       </c>
       <c r="E99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F99">
         <v>0.75</v>
@@ -6386,7 +6389,7 @@
         <v>1.992</v>
       </c>
       <c r="L99">
-        <v>0.51</v>
+        <v>0.615</v>
       </c>
       <c r="M99">
         <v>1.4164</v>
@@ -6401,19 +6404,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6427,7 +6430,7 @@
         <v>52</v>
       </c>
       <c r="E100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F100">
         <v>0.75</v>
@@ -6442,7 +6445,7 @@
         <v>1.992</v>
       </c>
       <c r="L100">
-        <v>0.51</v>
+        <v>0.615</v>
       </c>
       <c r="M100">
         <v>1.4164</v>
@@ -6457,19 +6460,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6483,7 +6486,7 @@
         <v>52</v>
       </c>
       <c r="E101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F101">
         <v>0.025</v>
@@ -6498,7 +6501,7 @@
         <v>0.2618</v>
       </c>
       <c r="L101">
-        <v>0.0205</v>
+        <v>0.0195</v>
       </c>
       <c r="M101">
         <v>0.10712</v>
@@ -6513,19 +6516,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U101" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6539,7 +6542,7 @@
         <v>52</v>
       </c>
       <c r="E102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F102">
         <v>0.025</v>
@@ -6554,7 +6557,7 @@
         <v>0.2618</v>
       </c>
       <c r="L102">
-        <v>0.0205</v>
+        <v>0.0195</v>
       </c>
       <c r="M102">
         <v>0.10712</v>
@@ -6569,19 +6572,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6598,7 +6601,7 @@
         <v>53</v>
       </c>
       <c r="E103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F103">
         <v>0.441</v>
@@ -6628,16 +6631,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6654,7 +6657,7 @@
         <v>53</v>
       </c>
       <c r="E104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -6669,7 +6672,7 @@
         <v>4.95</v>
       </c>
       <c r="L104">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="M104">
         <v>3.1</v>
@@ -6684,19 +6687,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6713,7 +6716,7 @@
         <v>53</v>
       </c>
       <c r="E105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F105">
         <v>0.012</v>
@@ -6728,7 +6731,7 @@
         <v>0.0343</v>
       </c>
       <c r="L105">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="M105">
         <v>0.019</v>
@@ -6743,19 +6746,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U105" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6772,7 +6775,7 @@
         <v>53</v>
       </c>
       <c r="E106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F106">
         <v>0.012</v>
@@ -6787,7 +6790,7 @@
         <v>0.0343</v>
       </c>
       <c r="L106">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="M106">
         <v>0.019</v>
@@ -6802,19 +6805,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U106" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6831,19 +6834,19 @@
         <v>53</v>
       </c>
       <c r="E107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F107">
         <v>146</v>
       </c>
       <c r="G107">
-        <v>907.419317152473</v>
+        <v>1012.11726677494</v>
       </c>
       <c r="H107">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I107">
-        <v>5807.2</v>
+        <v>5807.44</v>
       </c>
       <c r="J107">
         <v>22.4137931034483</v>
@@ -6852,13 +6855,13 @@
         <v>31.0344827586207</v>
       </c>
       <c r="L107">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M107">
         <v>964</v>
       </c>
       <c r="N107">
-        <v>3870.16</v>
+        <v>3870.216</v>
       </c>
       <c r="O107">
         <v>1821031.91</v>
@@ -6867,19 +6870,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U107" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6896,19 +6899,19 @@
         <v>53</v>
       </c>
       <c r="E108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F108">
         <v>146</v>
       </c>
       <c r="G108">
-        <v>907.419317152473</v>
+        <v>1012.11726677494</v>
       </c>
       <c r="H108">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I108">
-        <v>5807.2</v>
+        <v>5807.44</v>
       </c>
       <c r="J108">
         <v>22.4137931034483</v>
@@ -6917,13 +6920,13 @@
         <v>31.0344827586207</v>
       </c>
       <c r="L108">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M108">
         <v>964</v>
       </c>
       <c r="N108">
-        <v>3870.16</v>
+        <v>3870.216</v>
       </c>
       <c r="O108">
         <v>1821031.91</v>
@@ -6932,19 +6935,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U108" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -6961,19 +6964,19 @@
         <v>53</v>
       </c>
       <c r="E109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F109">
         <v>146</v>
       </c>
       <c r="G109">
-        <v>907.419317152473</v>
+        <v>1012.11726677494</v>
       </c>
       <c r="H109">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I109">
-        <v>5807.2</v>
+        <v>5807.44</v>
       </c>
       <c r="J109">
         <v>22.4137931034483</v>
@@ -6982,13 +6985,13 @@
         <v>31.0344827586207</v>
       </c>
       <c r="L109">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M109">
         <v>964</v>
       </c>
       <c r="N109">
-        <v>3870.16</v>
+        <v>3870.216</v>
       </c>
       <c r="O109">
         <v>1821031.91</v>
@@ -6997,19 +7000,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U109" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7026,19 +7029,19 @@
         <v>53</v>
       </c>
       <c r="E110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F110">
         <v>146</v>
       </c>
       <c r="G110">
-        <v>907.419317152473</v>
+        <v>1012.11726677494</v>
       </c>
       <c r="H110">
-        <v>12305.5163949952</v>
+        <v>17243.4263361135</v>
       </c>
       <c r="I110">
-        <v>5807.2</v>
+        <v>5807.44</v>
       </c>
       <c r="J110">
         <v>22.4137931034483</v>
@@ -7047,13 +7050,13 @@
         <v>31.0344827586207</v>
       </c>
       <c r="L110">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M110">
         <v>964</v>
       </c>
       <c r="N110">
-        <v>3870.16</v>
+        <v>3870.216</v>
       </c>
       <c r="O110">
         <v>1821031.91</v>
@@ -7062,19 +7065,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U110" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7091,7 +7094,7 @@
         <v>53</v>
       </c>
       <c r="E111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F111">
         <v>89</v>
@@ -7121,16 +7124,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7147,13 +7150,13 @@
         <v>53</v>
       </c>
       <c r="E112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F112">
         <v>0.00717</v>
       </c>
       <c r="G112">
-        <v>0.0104006432611043</v>
+        <v>0.0104859689577907</v>
       </c>
       <c r="H112">
         <v>0.0499738233063448</v>
@@ -7162,13 +7165,13 @@
         <v>0.03486</v>
       </c>
       <c r="L112">
-        <v>0.01159</v>
+        <v>0.01</v>
       </c>
       <c r="M112">
         <v>0.01826</v>
       </c>
       <c r="N112">
-        <v>0.02758</v>
+        <v>0.02868</v>
       </c>
       <c r="O112">
         <v>1821031.91</v>
@@ -7177,19 +7180,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U112" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7206,13 +7209,13 @@
         <v>53</v>
       </c>
       <c r="E113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F113">
         <v>0.00717</v>
       </c>
       <c r="G113">
-        <v>0.0104006432611043</v>
+        <v>0.0104859689577907</v>
       </c>
       <c r="H113">
         <v>0.0499738233063448</v>
@@ -7221,13 +7224,13 @@
         <v>0.03486</v>
       </c>
       <c r="L113">
-        <v>0.01159</v>
+        <v>0.01</v>
       </c>
       <c r="M113">
         <v>0.01826</v>
       </c>
       <c r="N113">
-        <v>0.02758</v>
+        <v>0.02868</v>
       </c>
       <c r="O113">
         <v>1821031.91</v>
@@ -7236,19 +7239,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U113" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7265,13 +7268,13 @@
         <v>53</v>
       </c>
       <c r="E114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F114">
         <v>0.399</v>
       </c>
       <c r="G114">
-        <v>0.519494423452092</v>
+        <v>0.519307165188968</v>
       </c>
       <c r="H114">
         <v>1.65</v>
@@ -7280,7 +7283,7 @@
         <v>1.4555</v>
       </c>
       <c r="L114">
-        <v>0.181</v>
+        <v>0.208</v>
       </c>
       <c r="M114">
         <v>1.06</v>
@@ -7295,19 +7298,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U114" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7324,13 +7327,13 @@
         <v>53</v>
       </c>
       <c r="E115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F115">
         <v>0.399</v>
       </c>
       <c r="G115">
-        <v>0.519494423452092</v>
+        <v>0.519307165188968</v>
       </c>
       <c r="H115">
         <v>1.65</v>
@@ -7339,7 +7342,7 @@
         <v>1.4555</v>
       </c>
       <c r="L115">
-        <v>0.181</v>
+        <v>0.208</v>
       </c>
       <c r="M115">
         <v>1.06</v>
@@ -7354,19 +7357,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U115" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7383,7 +7386,7 @@
         <v>53</v>
       </c>
       <c r="E116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F116">
         <v>5.787</v>
@@ -7413,16 +7416,16 @@
         <v>5545591.67</v>
       </c>
       <c r="Q116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7436,13 +7439,13 @@
         <v>53</v>
       </c>
       <c r="E117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F117">
         <v>0.417</v>
       </c>
       <c r="G117">
-        <v>0.533127019738308</v>
+        <v>0.533079845294285</v>
       </c>
       <c r="H117">
         <v>1.675</v>
@@ -7451,7 +7454,7 @@
         <v>1.46665</v>
       </c>
       <c r="L117">
-        <v>0.20025</v>
+        <v>0.23</v>
       </c>
       <c r="M117">
         <v>1.07578</v>
@@ -7466,19 +7469,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U117" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7492,13 +7495,13 @@
         <v>53</v>
       </c>
       <c r="E118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F118">
         <v>0.417</v>
       </c>
       <c r="G118">
-        <v>0.533127019738308</v>
+        <v>0.533079845294285</v>
       </c>
       <c r="H118">
         <v>1.675</v>
@@ -7507,7 +7510,7 @@
         <v>1.46665</v>
       </c>
       <c r="L118">
-        <v>0.20025</v>
+        <v>0.23</v>
       </c>
       <c r="M118">
         <v>1.07578</v>
@@ -7522,19 +7525,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U118" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7548,7 +7551,7 @@
         <v>53</v>
       </c>
       <c r="E119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F119">
         <v>0.79</v>
@@ -7563,7 +7566,7 @@
         <v>1.991</v>
       </c>
       <c r="L119">
-        <v>0.5649999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="M119">
         <v>1.3888</v>
@@ -7578,19 +7581,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U119" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7604,7 +7607,7 @@
         <v>53</v>
       </c>
       <c r="E120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F120">
         <v>0.79</v>
@@ -7619,7 +7622,7 @@
         <v>1.991</v>
       </c>
       <c r="L120">
-        <v>0.5649999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="M120">
         <v>1.3888</v>
@@ -7634,19 +7637,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U120" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7660,7 +7663,7 @@
         <v>53</v>
       </c>
       <c r="E121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F121">
         <v>0.025</v>
@@ -7675,7 +7678,7 @@
         <v>0.25535</v>
       </c>
       <c r="L121">
-        <v>0.0205</v>
+        <v>0.02</v>
       </c>
       <c r="M121">
         <v>0.10576</v>
@@ -7690,19 +7693,19 @@
         <v>5545591.67</v>
       </c>
       <c r="Q121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U121" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7716,7 +7719,7 @@
         <v>53</v>
       </c>
       <c r="E122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F122">
         <v>0.025</v>
@@ -7731,7 +7734,7 @@
         <v>0.25535</v>
       </c>
       <c r="L122">
-        <v>0.0205</v>
+        <v>0.02</v>
       </c>
       <c r="M122">
         <v>0.10576</v>
@@ -7746,19 +7749,1196 @@
         <v>5545591.67</v>
       </c>
       <c r="Q122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U122" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" t="s">
+        <v>42</v>
+      </c>
+      <c r="D123" t="s">
+        <v>54</v>
+      </c>
+      <c r="E123" t="s">
+        <v>55</v>
+      </c>
+      <c r="F123">
+        <v>0.35</v>
+      </c>
+      <c r="G123">
+        <v>0.3578</v>
+      </c>
+      <c r="H123">
+        <v>0.486</v>
+      </c>
+      <c r="I123">
+        <v>0.486</v>
+      </c>
+      <c r="L123">
+        <v>0.35</v>
+      </c>
+      <c r="M123">
+        <v>0.47025</v>
+      </c>
+      <c r="N123">
+        <v>0.486</v>
+      </c>
+      <c r="O123">
+        <v>1821031.91</v>
+      </c>
+      <c r="P123">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>56</v>
+      </c>
+      <c r="R123" t="s">
+        <v>57</v>
+      </c>
+      <c r="S123" t="s">
+        <v>58</v>
+      </c>
+      <c r="T123" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" t="s">
+        <v>43</v>
+      </c>
+      <c r="D124" t="s">
+        <v>54</v>
+      </c>
+      <c r="E124" t="s">
+        <v>55</v>
+      </c>
+      <c r="F124">
+        <v>0.875</v>
+      </c>
+      <c r="G124">
+        <v>1.49026315789474</v>
+      </c>
+      <c r="H124">
+        <v>5.1</v>
+      </c>
+      <c r="I124">
+        <v>5.02</v>
+      </c>
+      <c r="L124">
+        <v>2.05</v>
+      </c>
+      <c r="M124">
+        <v>3.112</v>
+      </c>
+      <c r="N124">
+        <v>4.198</v>
+      </c>
+      <c r="O124">
+        <v>1821031.91</v>
+      </c>
+      <c r="P124">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>56</v>
+      </c>
+      <c r="R124" t="s">
+        <v>57</v>
+      </c>
+      <c r="S124" t="s">
+        <v>58</v>
+      </c>
+      <c r="T124" t="s">
+        <v>59</v>
+      </c>
+      <c r="U124" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" t="s">
+        <v>44</v>
+      </c>
+      <c r="D125" t="s">
+        <v>54</v>
+      </c>
+      <c r="E125" t="s">
+        <v>55</v>
+      </c>
+      <c r="F125">
+        <v>0.011</v>
+      </c>
+      <c r="G125">
+        <v>0.0133220338983051</v>
+      </c>
+      <c r="H125">
+        <v>0.077</v>
+      </c>
+      <c r="I125">
+        <v>0.02875</v>
+      </c>
+      <c r="L125">
+        <v>0.008</v>
+      </c>
+      <c r="M125">
+        <v>0.019</v>
+      </c>
+      <c r="N125">
+        <v>0.025</v>
+      </c>
+      <c r="O125">
+        <v>1821031.91</v>
+      </c>
+      <c r="P125">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>56</v>
+      </c>
+      <c r="R125" t="s">
+        <v>57</v>
+      </c>
+      <c r="S125" t="s">
+        <v>58</v>
+      </c>
+      <c r="T125" t="s">
+        <v>59</v>
+      </c>
+      <c r="U125" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" t="s">
+        <v>42</v>
+      </c>
+      <c r="D126" t="s">
+        <v>54</v>
+      </c>
+      <c r="E126" t="s">
+        <v>55</v>
+      </c>
+      <c r="F126">
+        <v>0.011</v>
+      </c>
+      <c r="G126">
+        <v>0.0133220338983051</v>
+      </c>
+      <c r="H126">
+        <v>0.077</v>
+      </c>
+      <c r="I126">
+        <v>0.02875</v>
+      </c>
+      <c r="L126">
+        <v>0.008</v>
+      </c>
+      <c r="M126">
+        <v>0.019</v>
+      </c>
+      <c r="N126">
+        <v>0.025</v>
+      </c>
+      <c r="O126">
+        <v>1821031.91</v>
+      </c>
+      <c r="P126">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>56</v>
+      </c>
+      <c r="R126" t="s">
+        <v>57</v>
+      </c>
+      <c r="S126" t="s">
+        <v>58</v>
+      </c>
+      <c r="T126" t="s">
+        <v>59</v>
+      </c>
+      <c r="U126" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" t="s">
+        <v>44</v>
+      </c>
+      <c r="D127" t="s">
+        <v>54</v>
+      </c>
+      <c r="E127" t="s">
+        <v>55</v>
+      </c>
+      <c r="F127">
+        <v>127</v>
+      </c>
+      <c r="G127">
+        <v>593.872413793103</v>
+      </c>
+      <c r="H127">
+        <v>6212.4</v>
+      </c>
+      <c r="I127">
+        <v>4799.28</v>
+      </c>
+      <c r="J127">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K127">
+        <v>27.5862068965517</v>
+      </c>
+      <c r="L127">
+        <v>100</v>
+      </c>
+      <c r="M127">
+        <v>753.6</v>
+      </c>
+      <c r="N127">
+        <v>1768.184</v>
+      </c>
+      <c r="O127">
+        <v>1821031.91</v>
+      </c>
+      <c r="P127">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>56</v>
+      </c>
+      <c r="R127" t="s">
+        <v>57</v>
+      </c>
+      <c r="S127" t="s">
+        <v>58</v>
+      </c>
+      <c r="T127" t="s">
+        <v>59</v>
+      </c>
+      <c r="U127" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>28</v>
+      </c>
+      <c r="C128" t="s">
+        <v>42</v>
+      </c>
+      <c r="D128" t="s">
+        <v>54</v>
+      </c>
+      <c r="E128" t="s">
+        <v>55</v>
+      </c>
+      <c r="F128">
+        <v>127</v>
+      </c>
+      <c r="G128">
+        <v>593.872413793103</v>
+      </c>
+      <c r="H128">
+        <v>6212.4</v>
+      </c>
+      <c r="I128">
+        <v>4799.28</v>
+      </c>
+      <c r="J128">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K128">
+        <v>27.5862068965517</v>
+      </c>
+      <c r="L128">
+        <v>100</v>
+      </c>
+      <c r="M128">
+        <v>753.6</v>
+      </c>
+      <c r="N128">
+        <v>1768.184</v>
+      </c>
+      <c r="O128">
+        <v>1821031.91</v>
+      </c>
+      <c r="P128">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>56</v>
+      </c>
+      <c r="R128" t="s">
+        <v>57</v>
+      </c>
+      <c r="S128" t="s">
+        <v>58</v>
+      </c>
+      <c r="T128" t="s">
+        <v>59</v>
+      </c>
+      <c r="U128" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>29</v>
+      </c>
+      <c r="C129" t="s">
+        <v>46</v>
+      </c>
+      <c r="D129" t="s">
+        <v>54</v>
+      </c>
+      <c r="E129" t="s">
+        <v>55</v>
+      </c>
+      <c r="F129">
+        <v>127</v>
+      </c>
+      <c r="G129">
+        <v>593.872413793103</v>
+      </c>
+      <c r="H129">
+        <v>6212.4</v>
+      </c>
+      <c r="I129">
+        <v>4799.28</v>
+      </c>
+      <c r="J129">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K129">
+        <v>27.5862068965517</v>
+      </c>
+      <c r="L129">
+        <v>100</v>
+      </c>
+      <c r="M129">
+        <v>753.6</v>
+      </c>
+      <c r="N129">
+        <v>1768.184</v>
+      </c>
+      <c r="O129">
+        <v>1821031.91</v>
+      </c>
+      <c r="P129">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>56</v>
+      </c>
+      <c r="R129" t="s">
+        <v>57</v>
+      </c>
+      <c r="S129" t="s">
+        <v>58</v>
+      </c>
+      <c r="T129" t="s">
+        <v>59</v>
+      </c>
+      <c r="U129" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" t="s">
+        <v>45</v>
+      </c>
+      <c r="D130" t="s">
+        <v>54</v>
+      </c>
+      <c r="E130" t="s">
+        <v>55</v>
+      </c>
+      <c r="F130">
+        <v>127</v>
+      </c>
+      <c r="G130">
+        <v>593.872413793103</v>
+      </c>
+      <c r="H130">
+        <v>6212.4</v>
+      </c>
+      <c r="I130">
+        <v>4799.28</v>
+      </c>
+      <c r="J130">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K130">
+        <v>27.5862068965517</v>
+      </c>
+      <c r="L130">
+        <v>100</v>
+      </c>
+      <c r="M130">
+        <v>753.6</v>
+      </c>
+      <c r="N130">
+        <v>1768.184</v>
+      </c>
+      <c r="O130">
+        <v>1821031.91</v>
+      </c>
+      <c r="P130">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>56</v>
+      </c>
+      <c r="R130" t="s">
+        <v>57</v>
+      </c>
+      <c r="S130" t="s">
+        <v>58</v>
+      </c>
+      <c r="T130" t="s">
+        <v>59</v>
+      </c>
+      <c r="U130" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" t="s">
+        <v>43</v>
+      </c>
+      <c r="D131" t="s">
+        <v>54</v>
+      </c>
+      <c r="E131" t="s">
+        <v>55</v>
+      </c>
+      <c r="F131">
+        <v>89.09</v>
+      </c>
+      <c r="G131">
+        <v>93.792</v>
+      </c>
+      <c r="H131">
+        <v>111.11</v>
+      </c>
+      <c r="I131">
+        <v>111.11</v>
+      </c>
+      <c r="L131">
+        <v>89.09</v>
+      </c>
+      <c r="M131">
+        <v>106.553</v>
+      </c>
+      <c r="N131">
+        <v>111.11</v>
+      </c>
+      <c r="O131">
+        <v>1821031.91</v>
+      </c>
+      <c r="P131">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>56</v>
+      </c>
+      <c r="R131" t="s">
+        <v>57</v>
+      </c>
+      <c r="S131" t="s">
+        <v>58</v>
+      </c>
+      <c r="T131" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>31</v>
+      </c>
+      <c r="C132" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132" t="s">
+        <v>54</v>
+      </c>
+      <c r="E132" t="s">
+        <v>55</v>
+      </c>
+      <c r="F132">
+        <v>0.00753</v>
+      </c>
+      <c r="G132">
+        <v>0.0095677449351943</v>
+      </c>
+      <c r="H132">
+        <v>0.0351988088431091</v>
+      </c>
+      <c r="I132">
+        <v>0.02561</v>
+      </c>
+      <c r="L132">
+        <v>0.01004</v>
+      </c>
+      <c r="M132">
+        <v>0.01817</v>
+      </c>
+      <c r="N132">
+        <v>0.02296</v>
+      </c>
+      <c r="O132">
+        <v>1821031.91</v>
+      </c>
+      <c r="P132">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>56</v>
+      </c>
+      <c r="R132" t="s">
+        <v>57</v>
+      </c>
+      <c r="S132" t="s">
+        <v>58</v>
+      </c>
+      <c r="T132" t="s">
+        <v>59</v>
+      </c>
+      <c r="U132" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>32</v>
+      </c>
+      <c r="C133" t="s">
+        <v>46</v>
+      </c>
+      <c r="D133" t="s">
+        <v>54</v>
+      </c>
+      <c r="E133" t="s">
+        <v>55</v>
+      </c>
+      <c r="F133">
+        <v>0.00753</v>
+      </c>
+      <c r="G133">
+        <v>0.0095677449351943</v>
+      </c>
+      <c r="H133">
+        <v>0.0351988088431091</v>
+      </c>
+      <c r="I133">
+        <v>0.02561</v>
+      </c>
+      <c r="L133">
+        <v>0.01004</v>
+      </c>
+      <c r="M133">
+        <v>0.01817</v>
+      </c>
+      <c r="N133">
+        <v>0.02296</v>
+      </c>
+      <c r="O133">
+        <v>1821031.91</v>
+      </c>
+      <c r="P133">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>56</v>
+      </c>
+      <c r="R133" t="s">
+        <v>57</v>
+      </c>
+      <c r="S133" t="s">
+        <v>58</v>
+      </c>
+      <c r="T133" t="s">
+        <v>59</v>
+      </c>
+      <c r="U133" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" t="s">
+        <v>46</v>
+      </c>
+      <c r="D134" t="s">
+        <v>54</v>
+      </c>
+      <c r="E134" t="s">
+        <v>55</v>
+      </c>
+      <c r="F134">
+        <v>0.435</v>
+      </c>
+      <c r="G134">
+        <v>0.51406642853162</v>
+      </c>
+      <c r="H134">
+        <v>1.65</v>
+      </c>
+      <c r="I134">
+        <v>1.4555</v>
+      </c>
+      <c r="L134">
+        <v>0.238</v>
+      </c>
+      <c r="M134">
+        <v>0.98482</v>
+      </c>
+      <c r="N134">
+        <v>1.2546</v>
+      </c>
+      <c r="O134">
+        <v>1821031.91</v>
+      </c>
+      <c r="P134">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>56</v>
+      </c>
+      <c r="R134" t="s">
+        <v>57</v>
+      </c>
+      <c r="S134" t="s">
+        <v>58</v>
+      </c>
+      <c r="T134" t="s">
+        <v>59</v>
+      </c>
+      <c r="U134" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" t="s">
+        <v>46</v>
+      </c>
+      <c r="D135" t="s">
+        <v>54</v>
+      </c>
+      <c r="E135" t="s">
+        <v>55</v>
+      </c>
+      <c r="F135">
+        <v>0.435</v>
+      </c>
+      <c r="G135">
+        <v>0.51406642853162</v>
+      </c>
+      <c r="H135">
+        <v>1.65</v>
+      </c>
+      <c r="I135">
+        <v>1.4555</v>
+      </c>
+      <c r="L135">
+        <v>0.238</v>
+      </c>
+      <c r="M135">
+        <v>0.98482</v>
+      </c>
+      <c r="N135">
+        <v>1.2546</v>
+      </c>
+      <c r="O135">
+        <v>1821031.91</v>
+      </c>
+      <c r="P135">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>56</v>
+      </c>
+      <c r="R135" t="s">
+        <v>57</v>
+      </c>
+      <c r="S135" t="s">
+        <v>58</v>
+      </c>
+      <c r="T135" t="s">
+        <v>59</v>
+      </c>
+      <c r="U135" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" t="s">
+        <v>42</v>
+      </c>
+      <c r="D136" t="s">
+        <v>54</v>
+      </c>
+      <c r="E136" t="s">
+        <v>55</v>
+      </c>
+      <c r="F136">
+        <v>5.04</v>
+      </c>
+      <c r="G136">
+        <v>4.8464</v>
+      </c>
+      <c r="H136">
+        <v>5.925</v>
+      </c>
+      <c r="I136">
+        <v>5.925</v>
+      </c>
+      <c r="L136">
+        <v>5.04</v>
+      </c>
+      <c r="M136">
+        <v>5.8767</v>
+      </c>
+      <c r="N136">
+        <v>5.925</v>
+      </c>
+      <c r="O136">
+        <v>1821031.91</v>
+      </c>
+      <c r="P136">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>56</v>
+      </c>
+      <c r="R136" t="s">
+        <v>57</v>
+      </c>
+      <c r="S136" t="s">
+        <v>58</v>
+      </c>
+      <c r="T136" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>36</v>
+      </c>
+      <c r="D137" t="s">
+        <v>54</v>
+      </c>
+      <c r="E137" t="s">
+        <v>55</v>
+      </c>
+      <c r="F137">
+        <v>0.452</v>
+      </c>
+      <c r="G137">
+        <v>0.526686440677966</v>
+      </c>
+      <c r="H137">
+        <v>1.675</v>
+      </c>
+      <c r="I137">
+        <v>1.46665</v>
+      </c>
+      <c r="L137">
+        <v>0.251</v>
+      </c>
+      <c r="M137">
+        <v>0.99635</v>
+      </c>
+      <c r="N137">
+        <v>1.28852</v>
+      </c>
+      <c r="O137">
+        <v>1821031.91</v>
+      </c>
+      <c r="P137">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>56</v>
+      </c>
+      <c r="R137" t="s">
+        <v>57</v>
+      </c>
+      <c r="S137" t="s">
+        <v>58</v>
+      </c>
+      <c r="T137" t="s">
+        <v>59</v>
+      </c>
+      <c r="U137" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s">
+        <v>37</v>
+      </c>
+      <c r="D138" t="s">
+        <v>54</v>
+      </c>
+      <c r="E138" t="s">
+        <v>55</v>
+      </c>
+      <c r="F138">
+        <v>0.452</v>
+      </c>
+      <c r="G138">
+        <v>0.526686440677966</v>
+      </c>
+      <c r="H138">
+        <v>1.675</v>
+      </c>
+      <c r="I138">
+        <v>1.46665</v>
+      </c>
+      <c r="L138">
+        <v>0.251</v>
+      </c>
+      <c r="M138">
+        <v>0.99635</v>
+      </c>
+      <c r="N138">
+        <v>1.28852</v>
+      </c>
+      <c r="O138">
+        <v>1821031.91</v>
+      </c>
+      <c r="P138">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>56</v>
+      </c>
+      <c r="R138" t="s">
+        <v>57</v>
+      </c>
+      <c r="S138" t="s">
+        <v>58</v>
+      </c>
+      <c r="T138" t="s">
+        <v>59</v>
+      </c>
+      <c r="U138" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>38</v>
+      </c>
+      <c r="D139" t="s">
+        <v>54</v>
+      </c>
+      <c r="E139" t="s">
+        <v>55</v>
+      </c>
+      <c r="F139">
+        <v>0.82</v>
+      </c>
+      <c r="G139">
+        <v>0.880508474576271</v>
+      </c>
+      <c r="H139">
+        <v>2.88</v>
+      </c>
+      <c r="I139">
+        <v>1.991</v>
+      </c>
+      <c r="L139">
+        <v>0.6</v>
+      </c>
+      <c r="M139">
+        <v>1.3341</v>
+      </c>
+      <c r="N139">
+        <v>1.8892</v>
+      </c>
+      <c r="O139">
+        <v>1821031.91</v>
+      </c>
+      <c r="P139">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>56</v>
+      </c>
+      <c r="R139" t="s">
+        <v>57</v>
+      </c>
+      <c r="S139" t="s">
+        <v>58</v>
+      </c>
+      <c r="T139" t="s">
+        <v>59</v>
+      </c>
+      <c r="U139" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" t="s">
+        <v>54</v>
+      </c>
+      <c r="E140" t="s">
+        <v>55</v>
+      </c>
+      <c r="F140">
+        <v>0.82</v>
+      </c>
+      <c r="G140">
+        <v>0.880508474576271</v>
+      </c>
+      <c r="H140">
+        <v>2.88</v>
+      </c>
+      <c r="I140">
+        <v>1.991</v>
+      </c>
+      <c r="L140">
+        <v>0.6</v>
+      </c>
+      <c r="M140">
+        <v>1.3341</v>
+      </c>
+      <c r="N140">
+        <v>1.8892</v>
+      </c>
+      <c r="O140">
+        <v>1821031.91</v>
+      </c>
+      <c r="P140">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>56</v>
+      </c>
+      <c r="R140" t="s">
+        <v>57</v>
+      </c>
+      <c r="S140" t="s">
+        <v>58</v>
+      </c>
+      <c r="T140" t="s">
+        <v>59</v>
+      </c>
+      <c r="U140" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" t="s">
+        <v>40</v>
+      </c>
+      <c r="D141" t="s">
+        <v>54</v>
+      </c>
+      <c r="E141" t="s">
+        <v>55</v>
+      </c>
+      <c r="F141">
+        <v>0.023</v>
+      </c>
+      <c r="G141">
+        <v>0.0583220338983051</v>
+      </c>
+      <c r="H141">
+        <v>0.482</v>
+      </c>
+      <c r="I141">
+        <v>0.25535</v>
+      </c>
+      <c r="L141">
+        <v>0.019</v>
+      </c>
+      <c r="M141">
+        <v>0.08834</v>
+      </c>
+      <c r="N141">
+        <v>0.17534</v>
+      </c>
+      <c r="O141">
+        <v>1821031.91</v>
+      </c>
+      <c r="P141">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>56</v>
+      </c>
+      <c r="R141" t="s">
+        <v>57</v>
+      </c>
+      <c r="S141" t="s">
+        <v>58</v>
+      </c>
+      <c r="T141" t="s">
+        <v>59</v>
+      </c>
+      <c r="U141" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" t="s">
+        <v>41</v>
+      </c>
+      <c r="D142" t="s">
+        <v>54</v>
+      </c>
+      <c r="E142" t="s">
+        <v>55</v>
+      </c>
+      <c r="F142">
+        <v>0.023</v>
+      </c>
+      <c r="G142">
+        <v>0.0583220338983051</v>
+      </c>
+      <c r="H142">
+        <v>0.482</v>
+      </c>
+      <c r="I142">
+        <v>0.25535</v>
+      </c>
+      <c r="L142">
+        <v>0.019</v>
+      </c>
+      <c r="M142">
+        <v>0.08834</v>
+      </c>
+      <c r="N142">
+        <v>0.17534</v>
+      </c>
+      <c r="O142">
+        <v>1821031.91</v>
+      </c>
+      <c r="P142">
+        <v>5545591.67</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>56</v>
+      </c>
+      <c r="R142" t="s">
+        <v>57</v>
+      </c>
+      <c r="S142" t="s">
+        <v>58</v>
+      </c>
+      <c r="T142" t="s">
+        <v>59</v>
+      </c>
+      <c r="U142" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
